--- a/medicine/Maladies infectieuses/Infection_aiguë_des_voies_respiratoires_inférieures/Infection_aiguë_des_voies_respiratoires_inférieures.xlsx
+++ b/medicine/Maladies infectieuses/Infection_aiguë_des_voies_respiratoires_inférieures/Infection_aiguë_des_voies_respiratoires_inférieures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Infection_aigu%C3%AB_des_voies_respiratoires_inf%C3%A9rieures</t>
+          <t>Infection_aiguë_des_voies_respiratoires_inférieures</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une infection aiguë des voies respiratoires inférieures, également appelée infection respiratoire basse, est une infection aiguë touchant les voies aériennes inférieures ou les poumons. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Infection_aigu%C3%AB_des_voies_respiratoires_inf%C3%A9rieures</t>
+          <t>Infection_aiguë_des_voies_respiratoires_inférieures</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette entité désigne un groupe de pathologies pouvant inclure la bronchiolite, la bronchite aiguë, certains cas d'exacerbation de BPCO, de grippe ou de pneumonie.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Infection_aigu%C3%AB_des_voies_respiratoires_inf%C3%A9rieures</t>
+          <t>Infection_aiguë_des_voies_respiratoires_inférieures</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les personnes âgées, immunodéficientes ou atteintes de maladies pulmonaires chroniques risquent plus d'être touchées. Et on a récemment noté que certaines infections à virus multiples (coinfections virales) sont, chez les enfants, liées à un risque plus élevé de développer une infection aiguë des voies respiratoires (LRTI pour les anglophones)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les personnes âgées, immunodéficientes ou atteintes de maladies pulmonaires chroniques risquent plus d'être touchées. Et on a récemment noté que certaines infections à virus multiples (coinfections virales) sont, chez les enfants, liées à un risque plus élevé de développer une infection aiguë des voies respiratoires (LRTI pour les anglophones).
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Infection_aigu%C3%AB_des_voies_respiratoires_inf%C3%A9rieures</t>
+          <t>Infection_aiguë_des_voies_respiratoires_inférieures</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Pronostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces infections sont fréquentes et ont, dans la majorité des cas, une évolution spontanément favorable. 
 Cependant, elles constituent une des principales causes de mortalité dans le monde, notamment du fait des pneumonies. 
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Infection_aigu%C3%AB_des_voies_respiratoires_inf%C3%A9rieures</t>
+          <t>Infection_aiguë_des_voies_respiratoires_inférieures</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les agents causaux sont habituellement des virus ou des bactéries (ou une co-infection). 
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Infection_aigu%C3%AB_des_voies_respiratoires_inf%C3%A9rieures</t>
+          <t>Infection_aiguë_des_voies_respiratoires_inférieures</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce type d'infection s'exprime habituellement par des signes respiratoires, principalement la toux, éventuellement associés à des signes généraux comme la fièvre. 
 </t>
@@ -649,7 +671,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Infection_aigu%C3%AB_des_voies_respiratoires_inf%C3%A9rieures</t>
+          <t>Infection_aiguë_des_voies_respiratoires_inférieures</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -667,7 +689,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Si la cause est bactérienne, ou en présence d'une surinfection bactérienne, le patient se voit prescrire un antibiotique (essentiellement réservé aux cas de pneumonie). 
 </t>
@@ -680,7 +704,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Infection_aigu%C3%AB_des_voies_respiratoires_inf%C3%A9rieures</t>
+          <t>Infection_aiguë_des_voies_respiratoires_inférieures</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -698,10 +722,12 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines infections respiratoires basses graves, comme la pneumonie à pneumocoque, peuvent être prévenues par la vaccination.
-Chez l'enfant, l'administration d'échinacée pourpre diminuerait de 30 % le risque d'infection[2].
+Chez l'enfant, l'administration d'échinacée pourpre diminuerait de 30 % le risque d'infection.
 </t>
         </is>
       </c>
